--- a/Potman_Api/src/main/resources/API_Parameter.xlsx
+++ b/Potman_Api/src/main/resources/API_Parameter.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="236">
   <si>
     <t xml:space="preserve">Request Packet </t>
   </si>
@@ -732,6 +732,15 @@
   </si>
   <si>
     <t>{"result":"Successful","collection_name":"Automation_Device2","data":[{"_id":"63dcdba9f0f8f0077111ab70","MP":{"EC":null,"MN_L":"Automation_Device2","MN":"Automation_Device2","MM":[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50],"PQ":1,"DL":51,"PS":0,"PT":0,"CS":1,"SSS":0,"FI":1001,"MD":1,"MT":1},"NSS":1,"SD":0,"DT":"2023-02-03T15:32:17.000Z","UD":"","UI":"","GD":"1111","GI":"1111","MI":101,"name":[""],"meta":{"revision":0,"created":1675418537525,"version":0},"$loki":8}]}</t>
+  </si>
+  <si>
+    <t>{"key":"OGQr1PegCcRcIWMq","packet_identifier": "historical_data","message_id": 1234567890,"MN":["Automation_Device2"],"limit": 1,"start_date_time":"2023-02-08T10:15:14","end_date_time":"2023-02-08T10:31:14"}</t>
+  </si>
+  <si>
+    <t>{"packet_identifier":"historical_data","message_id":1234567890,"MN":["Automation_Device2"],"data":[[{"_id":"63e3294cf0f8f00771140c35","updated_time":"2023-02-08T04:47:08.472Z","created_time":"2023-02-08T04:47:08.472Z","MP":{"EC":null,"MN_L":"Automation_Device2","MN":"Automation_Device2","MM":[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50],"PQ":1,"DL":51,"PS":0,"PT":0,"CS":1,"SSS":0,"FI":1001,"MD":1,"MT":1},"NSS":1,"SD":0,"DT":"2023-02-08T10:17:08.000Z","UD":"","UI":"","GD":"1111","GI":"1111","MI":101,"name":[""],"__v":0}]]}</t>
+  </si>
+  <si>
+    <t>{"result":"Successful","collection_name":"Automation_Device2","data":[{"_id":"63e3294cf0f8f00771140c34","MP":{"EC":null,"MN_L":"Automation_Device2","MN":"Automation_Device2","MM":[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50],"PQ":1,"DL":51,"PS":0,"PT":0,"CS":1,"SSS":0,"FI":1001,"MD":1,"MT":1},"NSS":1,"SD":0,"DT":"2023-02-08T10:17:08.000Z","UD":"","UI":"","GD":"1111","GI":"1111","MI":101,"name":[""],"meta":{"revision":0,"created":1675831628477,"version":0},"$loki":424}]}</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1102,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F642E5C-E813-144D-A31C-7765CC03C269}">
-  <dimension ref="A1:F346"/>
+  <dimension ref="A1:F351"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
@@ -6674,6 +6683,85 @@
         <v>12</v>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>8</v>
+      </c>
+      <c r="B347" t="s">
+        <v>9</v>
+      </c>
+      <c r="C347" t="s">
+        <v>233</v>
+      </c>
+      <c r="D347" t="s">
+        <v>234</v>
+      </c>
+      <c r="E347" t="s">
+        <v>25</v>
+      </c>
+      <c r="F347" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>8</v>
+      </c>
+      <c r="B348" t="s">
+        <v>15</v>
+      </c>
+      <c r="C348" t="s">
+        <v>218</v>
+      </c>
+      <c r="D348" t="s">
+        <v>235</v>
+      </c>
+      <c r="E348" t="s">
+        <v>25</v>
+      </c>
+      <c r="F348" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>20</v>
+      </c>
+      <c r="B349" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>20</v>
+      </c>
+      <c r="C350" t="s">
+        <v>220</v>
+      </c>
+      <c r="D350" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>20</v>
+      </c>
+      <c r="B351" t="s">
+        <v>21</v>
+      </c>
+      <c r="C351" t="s">
+        <v>222</v>
+      </c>
+      <c r="D351" t="s">
+        <v>185</v>
+      </c>
+      <c r="E351" t="s">
+        <v>25</v>
+      </c>
+      <c r="F351" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Potman_Api/src/main/resources/API_Parameter.xlsx
+++ b/Potman_Api/src/main/resources/API_Parameter.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4482" uniqueCount="241">
   <si>
     <t xml:space="preserve">Request Packet </t>
   </si>
@@ -741,6 +741,21 @@
   </si>
   <si>
     <t>{"result":"Successful","collection_name":"Automation_Device2","data":[{"_id":"63e3294cf0f8f00771140c34","MP":{"EC":null,"MN_L":"Automation_Device2","MN":"Automation_Device2","MM":[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50],"PQ":1,"DL":51,"PS":0,"PT":0,"CS":1,"SSS":0,"FI":1001,"MD":1,"MT":1},"NSS":1,"SD":0,"DT":"2023-02-08T10:17:08.000Z","UD":"","UI":"","GD":"1111","GI":"1111","MI":101,"name":[""],"meta":{"revision":0,"created":1675831628477,"version":0},"$loki":424}]}</t>
+  </si>
+  <si>
+    <t>{"key":"XaNoIaqF6okk3Kpf","request_type": "read_collection","collection_name": "MG2GFRP1_schedule_hour","limit": 1,"query": {}}</t>
+  </si>
+  <si>
+    <t>{"result":"Successful","collection_name":"MG2GFRP1_schedule_hour","data":[{"MI":22029810,"GI":"70B3D5253012","GD":"W-70B3D5253012","DT":"2023-02-08T12:47:58.000Z","SD":0,"NSS":93,"MP":{"MT":1,"MD":1,"FI":3130,"SSS":0,"CS":1,"PT":0,"PS":0,"DL":51,"PQ":4,"MN":"MG2GFRP1_schedule_hour","MN_L":"MG2GFRP1_schedule_hour","MM":[305,3626,"08:02:2023 11:47 AM - to: 08:02:2023 12:47 PM"],"EC":null},"others":{"opening_reading":[6725915,13021754],"closing_reading":[6726220,13025380]},"created_time":"2023-02-08T07:40:37.198Z","updated_time":"2023-02-08T07:40:37.198Z","name":["Energy (Wh)","Run Hours","CO2 (PPM)"],"meta":{"revision":0,"created":1675842037202,"version":0},"$loki":2424}]}</t>
+  </si>
+  <si>
+    <t>{"key":"OGQr1PegCcRcIWMq","request_type": "read_collection","collection_name": "MG2GFRP1_schedule_hour","limit": 1,"query": {}}</t>
+  </si>
+  <si>
+    <t>{"result":"Successful","collection_name":"MG2GFRP1_schedule_hour","data":[{"MI":22031218,"GI":"70B3D5253012","GD":"W-70B3D5253012","DT":"2023-02-08T15:47:15.000Z","SD":0,"NSS":93,"MP":{"MT":1,"MD":1,"FI":3130,"SSS":0,"CS":1,"PT":0,"PS":0,"DL":51,"PQ":4,"MN":"MG2GFRP1_schedule_hour","MN_L":"MG2GFRP1_schedule_hour","MM":[647,3600,"08:02:2023 2:47 PM - to: 08:02:2023 3:47 PM"],"EC":null},"others":{"opening_reading":[6728082,13032536],"closing_reading":[6728729,13036136]},"created_time":"2023-02-08T10:40:37.803Z","updated_time":"2023-02-08T10:40:37.803Z","name":["Energy (Wh)","Run Hours","CO2 (PPM)"],"meta":{"revision":0,"created":1675852837810,"version":0},"$loki":2427}]}</t>
+  </si>
+  <si>
+    <t>{"request_type":"read_collection","key":"OGQr1PegCcRcIWMq","message":"Maximum requests reached for the user!"}</t>
   </si>
 </sst>
 </file>
@@ -1117,11 +1132,11 @@
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
+      <c r="C1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" t="s">
+        <v>240</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>

--- a/Potman_Api/src/main/resources/API_Parameter.xlsx
+++ b/Potman_Api/src/main/resources/API_Parameter.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4482" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4530" uniqueCount="248">
   <si>
     <t xml:space="preserve">Request Packet </t>
   </si>
@@ -756,6 +756,27 @@
   </si>
   <si>
     <t>{"request_type":"read_collection","key":"OGQr1PegCcRcIWMq","message":"Maximum requests reached for the user!"}</t>
+  </si>
+  <si>
+    <t>{"key":"OGQr1PegCcRcIWMq","packet_identifier": "historical_data","message_id": 1234567890,"MN":["Automation_Device2"],"limit": 1,"start_date_time":"2023-02-10T15:36:17","end_date_time":"2023-02-10T15:52:17"}</t>
+  </si>
+  <si>
+    <t>{"packet_identifier":"historical_data","message_id":1234567890,"MN":["Automation_Device2"],"data":[[]]}</t>
+  </si>
+  <si>
+    <t>{"result":"Successful","collection_name":"Automation_Device2","data":[{"_id":"63e61625f0f8f0077115258a","MP":{"EC":null,"MN_L":"Automation_Device2","MN":"Automation_Device2","MM":[0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50],"PQ":1,"DL":51,"PS":0,"PT":0,"CS":1,"SSS":0,"FI":1001,"MD":1,"MT":1},"NSS":1,"SD":0,"DT":"2023-02-10T15:32:13.000Z","UD":"","UI":"","GD":"1111","GI":"1111","MI":101,"name":[""],"meta":{"revision":0,"created":1676023333795,"version":0},"$loki":614}]}</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>{"request_type":"login_response","username":"www_automation","message":"successful","key":"aQXV6Rp3q5CBDsMr"}</t>
+  </si>
+  <si>
+    <t>{"key":"OGQr1PegCcRcIWMq","packet_identifier": "historical_data","message_id": 1234567890,"MN":["Automation_Device2"],"limit": 1,"start_date_time":"2023-02-10T15:37:48","end_date_time":"2023-02-10T15:53:48"}</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F642E5C-E813-144D-A31C-7765CC03C269}">
-  <dimension ref="A1:F351"/>
+  <dimension ref="A1:F357"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
@@ -6777,6 +6798,114 @@
         <v>12</v>
       </c>
     </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>8</v>
+      </c>
+      <c r="B352" t="s">
+        <v>9</v>
+      </c>
+      <c r="C352" t="s">
+        <v>241</v>
+      </c>
+      <c r="D352" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>8</v>
+      </c>
+      <c r="B353" t="s">
+        <v>15</v>
+      </c>
+      <c r="C353" t="s">
+        <v>218</v>
+      </c>
+      <c r="D353" t="s">
+        <v>243</v>
+      </c>
+      <c r="E353" t="s">
+        <v>244</v>
+      </c>
+      <c r="F353" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>20</v>
+      </c>
+      <c r="B354" t="s">
+        <v>21</v>
+      </c>
+      <c r="C354" t="s">
+        <v>222</v>
+      </c>
+      <c r="D354" t="s">
+        <v>205</v>
+      </c>
+      <c r="E354" t="s">
+        <v>244</v>
+      </c>
+      <c r="F354" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>8</v>
+      </c>
+      <c r="B355" t="s">
+        <v>9</v>
+      </c>
+      <c r="C355" t="s">
+        <v>246</v>
+      </c>
+      <c r="D355" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>8</v>
+      </c>
+      <c r="B356" t="s">
+        <v>15</v>
+      </c>
+      <c r="C356" t="s">
+        <v>218</v>
+      </c>
+      <c r="D356" t="s">
+        <v>243</v>
+      </c>
+      <c r="E356" t="s">
+        <v>247</v>
+      </c>
+      <c r="F356" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>20</v>
+      </c>
+      <c r="B357" t="s">
+        <v>21</v>
+      </c>
+      <c r="C357" t="s">
+        <v>222</v>
+      </c>
+      <c r="D357" t="s">
+        <v>205</v>
+      </c>
+      <c r="E357" t="s">
+        <v>247</v>
+      </c>
+      <c r="F357" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
